--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,7 +7955,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:13.279114</t>
+    <t>2025-03-05 16:14:41.853567</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,13 +7955,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:41.853567</t>
+    <t>2025-03-19 12:18:08.501099</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,25 +7955,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:08.501099</t>
+    <t>2025-04-17 10:01:20.177902</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,25 +7955,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:20.177902</t>
+    <t>2025-06-27 02:17:31.075711</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,13 +7955,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:31.075711</t>
+    <t>2025-08-06 15:10:51.869281</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>
@@ -52422,7 +52422,7 @@
     <mergeCell ref="AN3:AT3"/>
     <mergeCell ref="Z2:AT2"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
       <formula1>'Codelijsten'!$A$4:$A$6</formula1>
     </dataValidation>
@@ -52437,6 +52437,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
       <formula1>'Codelijsten'!$G$4:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK8:AK1000001">
+      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL8:AL1000001">
       <formula1>'Codelijsten'!$I$4:$I$7</formula1>
@@ -55412,7 +55415,7 @@
     <mergeCell ref="CH3:CN3"/>
     <mergeCell ref="BO2:CN2"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
       <formula1>'Codelijsten'!$AS$4:$AS$43</formula1>
     </dataValidation>
@@ -55445,6 +55448,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
       <formula1>'Codelijsten'!$BK$4:$BK$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM8:AM1000001">
+      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN8:AN1000001">
       <formula1>'Codelijsten'!$BM$4:$BM$251</formula1>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -7955,13 +7955,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:51.869281</t>
+    <t>2025-09-18 15:21:08.162259</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -8051,7 +8051,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:27:59.713957</t>
+    <t>2025-09-22 09:59:13.937673</t>
   </si>
   <si>
     <t>version</t>
@@ -52282,13 +52282,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
-      <formula1>'Codelijsten'!$FA$4:''$FA$8</formula1>
+      <formula1>'Codelijsten'!$FA$4:$FA$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$FC$4:''$FC$18</formula1>
+      <formula1>'Codelijsten'!$FC$4:$FC$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
-      <formula1>'Codelijsten'!$FE$4:''$FE$29</formula1>
+      <formula1>'Codelijsten'!$FE$4:$FE$29</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
@@ -52297,7 +52297,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
-      <formula1>'Codelijsten'!$FG$4:''$FG$86</formula1>
+      <formula1>'Codelijsten'!$FG$4:$FG$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -53021,28 +53021,28 @@
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$6</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$6</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8:X1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8:Z1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$5</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$6</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK8:AK1000001">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL8:AL1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$7</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM8:AM1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$9</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$9</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT8:AT1000001">
       <formula1>-146096</formula1>
@@ -54621,61 +54621,61 @@
   </mergeCells>
   <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$5</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$21</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$6</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$17</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$6</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9:S1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$20</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB9:AB1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE9:AE1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$6</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF9:AF1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$17</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP9:AP1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ9:AQ1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$20</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ9:AZ1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA9:BA1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$18</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI9:BI1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ9:BJ1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$7</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK9:BK1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$14</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM9:BM1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$8</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA9:CA1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$6</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CV9:CV1000001">
       <formula1>-146096</formula1>
@@ -54684,7 +54684,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DC9:DC1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$86</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -56024,55 +56024,55 @@
   </mergeCells>
   <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$43</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$43</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
-      <formula1>'Codelijsten'!$AU$4:''$AU$46</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$46</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>'Codelijsten'!$AW$4:''$AW$19</formula1>
+      <formula1>'Codelijsten'!$AW$4:$AW$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1000001">
-      <formula1>'Codelijsten'!$AY$4:''$AY$21</formula1>
+      <formula1>'Codelijsten'!$AY$4:$AY$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1000001">
-      <formula1>'Codelijsten'!$BA$4:''$BA$13</formula1>
+      <formula1>'Codelijsten'!$BA$4:$BA$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1000001">
-      <formula1>'Codelijsten'!$BC$4:''$BC$43</formula1>
+      <formula1>'Codelijsten'!$BC$4:$BC$43</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1000001">
-      <formula1>'Codelijsten'!$BE$4:''$BE$23</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
-      <formula1>'Codelijsten'!$BG$4:''$BG$24</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$24</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH8:AH1000001">
-      <formula1>'Codelijsten'!$BI$4:''$BI$5</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$BK$4:''$BK$36</formula1>
+      <formula1>'Codelijsten'!$BK$4:$BK$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM8:AM1000001">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN8:AN1000001">
-      <formula1>'Codelijsten'!$BM$4:''$BM$251</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$251</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ8:AQ1000001">
-      <formula1>'Codelijsten'!$BO$4:''$BO$8</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN8:BN1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO8:BO1000001">
-      <formula1>'Codelijsten'!$BQ$4:''$BQ$15</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$BS$4:''$BS$7</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN8:CN1000001">
       <formula1>-146096</formula1>
@@ -56845,13 +56845,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1000001">
-      <formula1>'Codelijsten'!$BU$4:''$BU$5</formula1>
+      <formula1>'Codelijsten'!$BU$4:$BU$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1000001">
-      <formula1>'Codelijsten'!$BW$4:''$BW$6</formula1>
+      <formula1>'Codelijsten'!$BW$4:$BW$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$BY$4:''$BY$8</formula1>
+      <formula1>'Codelijsten'!$BY$4:$BY$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL8:AL1000001">
       <formula1>-146096</formula1>
@@ -56863,7 +56863,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA8:BA1000001">
-      <formula1>'Codelijsten'!$CA$4:''$CA$86</formula1>
+      <formula1>'Codelijsten'!$CA$4:$CA$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -58496,37 +58496,37 @@
   </mergeCells>
   <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1000001">
-      <formula1>'Codelijsten'!$CC$4:''$CC$1003</formula1>
+      <formula1>'Codelijsten'!$CC$4:$CC$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N1000001">
-      <formula1>'Codelijsten'!$CE$4:''$CE$68</formula1>
+      <formula1>'Codelijsten'!$CE$4:$CE$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O1000001">
-      <formula1>'Codelijsten'!$CG$4:''$CG$68</formula1>
+      <formula1>'Codelijsten'!$CG$4:$CG$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9:S1000001">
-      <formula1>'Codelijsten'!$CI$4:''$CI$5</formula1>
+      <formula1>'Codelijsten'!$CI$4:$CI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:T1000001">
-      <formula1>'Codelijsten'!$CK$4:''$CK$5</formula1>
+      <formula1>'Codelijsten'!$CK$4:$CK$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:U1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9:Y1000001">
-      <formula1>'Codelijsten'!$CM$4:''$CM$6</formula1>
+      <formula1>'Codelijsten'!$CM$4:$CM$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD9:AD1000001">
-      <formula1>'Codelijsten'!$CO$4:''$CO$6</formula1>
+      <formula1>'Codelijsten'!$CO$4:$CO$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH1000001">
-      <formula1>'Codelijsten'!$CQ$4:''$CQ$68</formula1>
+      <formula1>'Codelijsten'!$CQ$4:$CQ$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9:AI1000001">
-      <formula1>'Codelijsten'!$CS$4:''$CS$6</formula1>
+      <formula1>'Codelijsten'!$CS$4:$CS$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL9:AL1000001">
-      <formula1>'Codelijsten'!$CU$4:''$CU$181</formula1>
+      <formula1>'Codelijsten'!$CU$4:$CU$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM9:AM1000001">
       <formula1>-146096</formula1>
@@ -58535,13 +58535,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP9:AP1000001">
-      <formula1>'Codelijsten'!$CW$4:''$CW$6</formula1>
+      <formula1>'Codelijsten'!$CW$4:$CW$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL9:BL1000001">
-      <formula1>'Codelijsten'!$CY$4:''$CY$1003</formula1>
+      <formula1>'Codelijsten'!$CY$4:$CY$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO9:BO1000001">
-      <formula1>'Codelijsten'!$DA$4:''$DA$68</formula1>
+      <formula1>'Codelijsten'!$DA$4:$DA$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR9:BR1000001">
       <formula1>-146096</formula1>
@@ -58553,19 +58553,19 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE9:CE1000001">
-      <formula1>'Codelijsten'!$DC$4:''$DC$86</formula1>
+      <formula1>'Codelijsten'!$DC$4:$DC$86</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN9:CN1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CO9:CO1000001">
-      <formula1>'Codelijsten'!$DE$4:''$DE$8</formula1>
+      <formula1>'Codelijsten'!$DE$4:$DE$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DC9:DC1000001">
-      <formula1>'Codelijsten'!$DG$4:''$DG$68</formula1>
+      <formula1>'Codelijsten'!$DG$4:$DG$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DD9:DD1000001">
-      <formula1>'Codelijsten'!$DI$4:''$DI$68</formula1>
+      <formula1>'Codelijsten'!$DI$4:$DI$68</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -59121,7 +59121,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$DK$4:''$DK$8</formula1>
+      <formula1>'Codelijsten'!$DK$4:$DK$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1000001">
       <formula1>-146096</formula1>
@@ -59130,7 +59130,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
-      <formula1>'Codelijsten'!$DM$4:''$DM$86</formula1>
+      <formula1>'Codelijsten'!$DM$4:$DM$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -59945,25 +59945,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$DO$4:''$DO$14</formula1>
+      <formula1>'Codelijsten'!$DO$4:$DO$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$DQ$4:''$DQ$5</formula1>
+      <formula1>'Codelijsten'!$DQ$4:$DQ$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$DS$4:''$DS$86</formula1>
+      <formula1>'Codelijsten'!$DS$4:$DS$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$DU$4:''$DU$12</formula1>
+      <formula1>'Codelijsten'!$DU$4:$DU$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$DW$4:''$DW$40</formula1>
+      <formula1>'Codelijsten'!$DW$4:$DW$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$DY$4:''$DY$6</formula1>
+      <formula1>'Codelijsten'!$DY$4:$DY$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -59981,7 +59981,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$EA$4:''$EA$86</formula1>
+      <formula1>'Codelijsten'!$EA$4:$EA$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -61002,25 +61002,25 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$EC$4:''$EC$1003</formula1>
+      <formula1>'Codelijsten'!$EC$4:$EC$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$EE$4:''$EE$68</formula1>
+      <formula1>'Codelijsten'!$EE$4:$EE$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$EG$4:''$EG$68</formula1>
+      <formula1>'Codelijsten'!$EG$4:$EG$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$EI$4:''$EI$6</formula1>
+      <formula1>'Codelijsten'!$EI$4:$EI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$EK$4:''$EK$68</formula1>
+      <formula1>'Codelijsten'!$EK$4:$EK$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
-      <formula1>'Codelijsten'!$EM$4:''$EM$6</formula1>
+      <formula1>'Codelijsten'!$EM$4:$EM$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$EO$4:''$EO$181</formula1>
+      <formula1>'Codelijsten'!$EO$4:$EO$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -61029,16 +61029,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$EQ$4:''$EQ$6</formula1>
+      <formula1>'Codelijsten'!$EQ$4:$EQ$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$ES$4:''$ES$5</formula1>
+      <formula1>'Codelijsten'!$ES$4:$ES$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$EU$4:''$EU$1003</formula1>
+      <formula1>'Codelijsten'!$EU$4:$EU$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
-      <formula1>'Codelijsten'!$EW$4:''$EW$68</formula1>
+      <formula1>'Codelijsten'!$EW$4:$EW$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH8:BH1000001">
       <formula1>-146096</formula1>
@@ -61050,7 +61050,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$EY$4:''$EY$86</formula1>
+      <formula1>'Codelijsten'!$EY$4:$EY$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -8051,7 +8051,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:13.937673</t>
+    <t>2025-09-22 11:00:02.346756</t>
   </si>
   <si>
     <t>version</t>
@@ -8069,7 +8069,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -8051,13 +8051,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:02.346756</t>
+    <t>2025-09-24 17:44:32.354287</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -8051,13 +8051,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:32.354287</t>
+    <t>2025-09-24 22:46:46.197444</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_bodem_template_full.xlsx
+++ b/templates/productie/productie_bodem_template_full.xlsx
@@ -8057,7 +8057,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:25.021236</t>
+    <t>2026-01-01 02:16:24.970535</t>
   </si>
   <si>
     <t>version</t>
